--- a/biology/Zoologie/Aituaria_borutzkyi/Aituaria_borutzkyi.xlsx
+++ b/biology/Zoologie/Aituaria_borutzkyi/Aituaria_borutzkyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aituaria borutzkyi est une espèce d'araignées aranéomorphes de la famille des Nesticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aituaria borutzkyi est une espèce d'araignées aranéomorphes de la famille des Nesticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Géorgie, en Turquie et en Ukraine en Crimée[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Géorgie, en Turquie et en Ukraine en Crimée,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle subadulte holotype mesure 1,63 mm de long sur 1,32 mm et l'abdomen 3 mm de long sur 1,8 mm[3]
-Le mâle décrit par Nadolny et Kovblyuk en 2007 mesure 4,5 mm et la femelle 4,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle subadulte holotype mesure 1,63 mm de long sur 1,32 mm et l'abdomen 3 mm de long sur 1,8 mm
+Le mâle décrit par Nadolny et Kovblyuk en 2007 mesure 4,5 mm et la femelle 4,8 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nesticus borutzkyi par Reimoser en 1930. Elle est placée dans le genre Carpathonesticus par Lehtinen et Saaristo en 1980[4] puis dans le genre Aituaria par Fomichev, Ballarin et Marusik en 2022[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nesticus borutzkyi par Reimoser en 1930. Elle est placée dans le genre Carpathonesticus par Lehtinen et Saaristo en 1980 puis dans le genre Aituaria par Fomichev, Ballarin et Marusik en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Reimoser, 1930 : « Eine neue Nesticus-Art aus dem Kaukasus. » Zoologischer Anzeiger, vol. 88, p. 158-159.</t>
         </is>
